--- a/CNPJJ.xlsx
+++ b/CNPJJ.xlsx
@@ -191,10 +191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="G3:G10"/>
+  <dimension ref="G3:G53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,15 +210,78 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="1" t="n">
-        <v>15434153000114</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>46392165000157</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="n">
+        <v>12299167000184</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0" t="n">
+        <v>2539019000136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="n">
+        <v>7392529001461</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0" t="n">
+        <v>7392529001623</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="n">
+        <v>21988816000145</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/CNPJJ.xlsx
+++ b/CNPJJ.xlsx
@@ -20,17 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">EMPRESA</t>
+  </si>
   <si>
     <t xml:space="preserve">CNPJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3S MOTORS LTDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A C S L ENTRETENIMENTOS LTDA  MATRIZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. I. NUNES COMERCIO DE TECIDOS  MATRIZ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -105,12 +118,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,97 +208,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="G3:G53"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.43"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>46392165000157</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="1" t="n">
-        <v>46392165000157</v>
-      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="n">
-        <v>12299167000184</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="0" t="n">
-        <v>2539019000136</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="0" t="n">
-        <v>7392529001461</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="n">
-        <v>7392529001623</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="0" t="n">
-        <v>21988816000145</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>22135112000192</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
